--- a/src/test/resources/testdata/Book3.xlsx
+++ b/src/test/resources/testdata/Book3.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="26">
   <si>
     <t>Insurance Provider Company</t>
   </si>

--- a/src/test/resources/testdata/Book3.xlsx
+++ b/src/test/resources/testdata/Book3.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="26">
   <si>
     <t>Insurance Provider Company</t>
   </si>
